--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Compañía Puerto de Coronel S.A.</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Compañía Puerto de Coronel S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,11 +11379,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,11 +11427,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14480,7 +14480,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14495,11 +14495,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14508,12 +14508,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14543,11 +14543,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14556,12 +14556,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -18080,7 +18080,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18099,7 +18099,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18108,12 +18108,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18128,7 +18128,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18147,7 +18147,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18156,12 +18156,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -19116,7 +19116,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -19164,7 +19164,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -17964,7 +17964,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -9380,7 +9380,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Compañía Puerto de Coronel S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Compañía Puerto de Coronel S.A.</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,11 +11379,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,11 +11427,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14480,7 +14480,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14495,11 +14495,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14508,12 +14508,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14543,11 +14543,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14556,12 +14556,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -18080,7 +18080,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18099,7 +18099,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18108,12 +18108,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18128,7 +18128,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18147,7 +18147,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18156,12 +18156,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Compañía Puerto de Coronel S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Compañía Puerto de Coronel S.A.</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,11 +11379,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,11 +11427,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14480,7 +14480,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14495,11 +14495,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14508,12 +14508,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14543,11 +14543,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14556,12 +14556,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -18080,7 +18080,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18099,7 +18099,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18108,12 +18108,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18128,7 +18128,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18147,7 +18147,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18156,12 +18156,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -5444,7 +5444,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Compañía Puerto de Coronel S.A.</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Compañía Puerto de Coronel S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,11 +11379,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11392,12 +11392,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,11 +11427,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14480,7 +14480,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14495,11 +14495,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14508,12 +14508,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14543,11 +14543,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14556,12 +14556,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -18080,7 +18080,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18099,7 +18099,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18108,12 +18108,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18128,7 +18128,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18147,7 +18147,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18156,12 +18156,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Compañía Puerto de Coronel S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Compañía Puerto de Coronel S.A.</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,11 +11427,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,11 +11475,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11488,12 +11488,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14543,11 +14543,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14556,12 +14556,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14591,11 +14591,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14604,12 +14604,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -18128,7 +18128,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18147,7 +18147,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18156,12 +18156,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18195,7 +18195,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18204,12 +18204,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Compañía Puerto de Coronel S.A.</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Compañía Puerto de Coronel S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,11 +11427,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,11 +11475,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11488,12 +11488,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14543,11 +14543,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14556,12 +14556,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14591,11 +14591,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14604,12 +14604,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -18128,7 +18128,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18147,7 +18147,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18156,12 +18156,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18195,7 +18195,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18204,12 +18204,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/05/2022</t>
+          <t>02/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -10851,7 +10851,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FULGHUM FIBRES CHILE S,A.</t>
+          <t>Fulghum Fibres S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FULGHUM FIBRES CHILE S,A.</t>
+          <t>Fulghum Fibres S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>FULGHUM FIBRES CHILE S,A.</t>
+          <t>Fulghum Fibres S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Compañía Puerto de Coronel S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Compañía Puerto de Coronel S.A.</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,11 +11427,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,11 +11475,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11488,12 +11488,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14543,11 +14543,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14556,12 +14556,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14591,11 +14591,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14604,12 +14604,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Volterra S.A.</t>
+          <t>Fulghum Fibres S.A.</t>
         </is>
       </c>
       <c r="F370" t="n">
@@ -18128,7 +18128,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18147,7 +18147,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18156,12 +18156,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18195,7 +18195,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18204,12 +18204,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -10323,7 +10323,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F208" t="n">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -7975,7 +7975,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Compañía Puerto de Coronel S.A.</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F159" t="n">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,11 +11427,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,11 +11475,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11488,12 +11488,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14543,11 +14543,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14556,12 +14556,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14591,11 +14591,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14604,12 +14604,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -18128,7 +18128,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18147,7 +18147,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18156,12 +18156,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18195,7 +18195,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18204,12 +18204,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,11 +11427,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11440,12 +11440,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,11 +11475,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11488,12 +11488,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14528,7 +14528,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14543,11 +14543,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14556,12 +14556,12 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14591,11 +14591,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14604,12 +14604,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -18128,7 +18128,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18147,7 +18147,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18156,12 +18156,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18195,7 +18195,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18204,12 +18204,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,11 +11475,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11488,12 +11488,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11523,11 +11523,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11536,12 +11536,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14591,11 +14591,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14604,12 +14604,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14624,7 +14624,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14639,11 +14639,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14652,12 +14652,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18195,7 +18195,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18204,12 +18204,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18224,7 +18224,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18243,7 +18243,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18252,12 +18252,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,11 +11475,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11488,12 +11488,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11523,11 +11523,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11536,12 +11536,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14591,11 +14591,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14604,12 +14604,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14624,7 +14624,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14639,11 +14639,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14652,12 +14652,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18195,7 +18195,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18204,12 +18204,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18224,7 +18224,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18243,7 +18243,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18252,12 +18252,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,11 +11475,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11488,12 +11488,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11523,11 +11523,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11536,12 +11536,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14591,11 +14591,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14604,12 +14604,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14624,7 +14624,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14639,11 +14639,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14652,12 +14652,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18195,7 +18195,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18204,12 +18204,12 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18224,7 +18224,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18243,7 +18243,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18252,12 +18252,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresas Malterías S.A. Maltexco S.A.</t>
+          <t>Empresas Malterías S.A. Maltexco S.A...</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -13919,7 +13919,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Empresas Malterías S.A. Maltexco S.A.</t>
+          <t>Empresas Malterías S.A. Maltexco S.A...</t>
         </is>
       </c>
       <c r="F283" t="n">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11523,11 +11523,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11536,12 +11536,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11571,11 +11571,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11584,12 +11584,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -14624,7 +14624,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14639,11 +14639,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14652,12 +14652,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14672,7 +14672,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14687,11 +14687,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14700,12 +14700,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -18224,7 +18224,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18243,7 +18243,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18252,12 +18252,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18291,7 +18291,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18300,12 +18300,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11523,11 +11523,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11536,12 +11536,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11571,11 +11571,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11584,12 +11584,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -14624,7 +14624,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14639,11 +14639,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14652,12 +14652,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14672,7 +14672,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14687,11 +14687,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14700,12 +14700,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -18224,7 +18224,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18243,7 +18243,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18252,12 +18252,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18291,7 +18291,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18300,12 +18300,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/04/2023</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>21/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11571,11 +11571,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11584,12 +11584,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11619,11 +11619,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11632,12 +11632,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14672,7 +14672,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14687,11 +14687,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14700,12 +14700,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14720,7 +14720,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14735,11 +14735,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14748,12 +14748,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18291,7 +18291,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18300,12 +18300,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18339,7 +18339,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11571,11 +11571,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11584,12 +11584,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11619,11 +11619,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11632,12 +11632,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -14672,7 +14672,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14687,11 +14687,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14700,12 +14700,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14720,7 +14720,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14735,11 +14735,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14748,12 +14748,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18291,7 +18291,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18300,12 +18300,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18339,7 +18339,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/04/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>22/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11619,11 +11619,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11632,12 +11632,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14720,7 +14720,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14735,11 +14735,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14748,12 +14748,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14783,11 +14783,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14796,12 +14796,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18339,7 +18339,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18387,7 +18387,7 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11619,11 +11619,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11632,12 +11632,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -14720,7 +14720,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14735,11 +14735,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14748,12 +14748,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14783,11 +14783,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14796,12 +14796,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18339,7 +18339,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18348,12 +18348,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18387,7 +18387,7 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/05/2023</t>
+          <t>02/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11715,11 +11715,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14783,11 +14783,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14796,12 +14796,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14816,7 +14816,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14831,11 +14831,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14844,12 +14844,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18387,7 +18387,7 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18435,7 +18435,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11680,12 +11680,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11715,11 +11715,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14783,11 +14783,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14796,12 +14796,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14816,7 +14816,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14831,11 +14831,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14844,12 +14844,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18387,7 +18387,7 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18396,12 +18396,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18435,7 +18435,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/07/2023</t>
+          <t>12/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11715,11 +11715,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11776,12 +11776,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -14816,7 +14816,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14831,11 +14831,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14844,12 +14844,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14879,11 +14879,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14892,12 +14892,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18435,7 +18435,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18483,7 +18483,7 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11715,11 +11715,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11728,12 +11728,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11776,12 +11776,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -14816,7 +14816,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14831,11 +14831,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14844,12 +14844,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14879,11 +14879,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14892,12 +14892,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -18416,7 +18416,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -18435,7 +18435,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G377" t="inlineStr">
         <is>
@@ -18444,12 +18444,12 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18483,7 +18483,7 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MODIFICACION DEL LUGAR DE DISPOSICION DE LOS RILES DE MALTEXCO S.A.</t>
+          <t>Modificación del Lugar de Disposición de Los Riles de Maltexco S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -10659,7 +10659,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F215" t="n">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11776,12 +11776,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11811,11 +11811,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14879,11 +14879,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14892,12 +14892,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14912,7 +14912,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14927,11 +14927,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14940,12 +14940,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18483,7 +18483,7 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18531,7 +18531,7 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11776,12 +11776,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11811,11 +11811,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14879,11 +14879,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14892,12 +14892,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14912,7 +14912,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14927,11 +14927,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14940,12 +14940,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18483,7 +18483,7 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18531,7 +18531,7 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11776,12 +11776,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11811,11 +11811,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14879,11 +14879,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14892,12 +14892,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14912,7 +14912,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14927,11 +14927,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14940,12 +14940,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -18483,7 +18483,7 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G378" t="inlineStr">
         <is>
@@ -18492,12 +18492,12 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18531,7 +18531,7 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ferrocarriles Suburbanos de Concepción S.A.</t>
+          <t>EFE SUR. S.A</t>
         </is>
       </c>
       <c r="F113" t="n">

--- a/data/Coronel.xlsx
+++ b/data/Coronel.xlsx
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Instalación Planta de Astillado Coronel</t>
+          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Coala Industrial Ltda</t>
+          <t>empresa de transporte de pasajeros</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Terminal y Deposito de buses Nueva Takora Ltda</t>
+          <t>Instalación Planta de Astillado Coronel</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>empresa de transporte de pasajeros</t>
+          <t>Coala Industrial Ltda</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4722623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4740380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11811,11 +11811,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Industrial Maule Ltda</t>
+          <t>REPROCESA S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1000</v>
+        <v>497</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11824,12 +11824,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE ENVASES Y RESIDUOS PLÁSTICOS CORONEL (e-seia)</t>
+          <t>Planta Refinadora de Aceite de Pescado RAP (e-seia)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11859,11 +11859,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>REPROCESA S.A.</t>
+          <t>Industrial Maule Ltda</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>497</v>
+        <v>1000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11872,12 +11872,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2493384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2494983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -14912,7 +14912,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14927,11 +14927,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14940,12 +14940,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14975,11 +14975,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14988,12 +14988,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
+          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -18531,7 +18531,7 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
@@ -18560,7 +18560,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de tratamiento de aguas servidas AGUACOR S.A.</t>
+          <t>Mejoramiento Planta de Producción de Agua Potable del Parque Industrial Coronel.</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -18579,7 +18579,7 @@
         </is>
       </c>
       <c r="F380" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="G380" t="inlineStr">
         <is>
@@ -18588,12 +18588,12 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
